--- a/Hx.BackAdmin/App_Data/DCC月报.xlsx
+++ b/Hx.BackAdmin/App_Data/DCC月报.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>序号</t>
   </si>
@@ -213,6 +213,14 @@
   </si>
   <si>
     <t>触点</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>温州红源</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐清红源</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -693,6 +701,60 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -708,9 +770,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -745,57 +804,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1110,7 +1118,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N8" sqref="N8"/>
+      <selection pane="topRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -1140,133 +1148,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B1" s="67"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="87"/>
     </row>
     <row r="2" spans="1:37" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="78" t="s">
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="78" t="s">
+      <c r="N2" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="80" t="s">
+      <c r="O2" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="82" t="s">
+      <c r="P2" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="Q2" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="83" t="s">
+      <c r="R2" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="72" t="s">
+      <c r="S2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="72"/>
-      <c r="U2" s="84" t="s">
+      <c r="T2" s="70"/>
+      <c r="U2" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="92" t="s">
+      <c r="V2" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="98" t="s">
+      <c r="W2" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="92" t="s">
+      <c r="X2" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="99" t="s">
+      <c r="Y2" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="73" t="s">
+      <c r="Z2" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="75" t="s">
+      <c r="AA2" s="91"/>
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="91"/>
+      <c r="AF2" s="91"/>
+      <c r="AG2" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="101" t="s">
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="92"/>
+      <c r="AJ2" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="AK2" s="97" t="s">
+      <c r="AK2" s="67" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:37" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.15">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
       <c r="G3" s="53" t="s">
         <v>29</v>
       </c>
@@ -1285,23 +1293,23 @@
       <c r="L3" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="83"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="100"/>
       <c r="S3" s="54" t="s">
         <v>41</v>
       </c>
       <c r="T3" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="U3" s="84"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="100"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="72"/>
       <c r="Z3" s="55" t="s">
         <v>53</v>
       </c>
@@ -1332,8 +1340,8 @@
       <c r="AI3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="101"/>
-      <c r="AK3" s="97"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="67"/>
     </row>
     <row r="4" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="44">
@@ -1348,7 +1356,7 @@
         <f>D4/C4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F4" s="94" t="e">
+      <c r="F4" s="82" t="e">
         <f>SUM(E4:E21)/18</f>
         <v>#DIV/0!</v>
       </c>
@@ -1404,7 +1412,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C5" s="57"/>
       <c r="D5" s="58"/>
@@ -1412,7 +1420,7 @@
         <f t="shared" ref="E5:E6" si="0">D5/C5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F5" s="95"/>
+      <c r="F5" s="83"/>
       <c r="G5" s="57"/>
       <c r="H5" s="57"/>
       <c r="I5" s="57"/>
@@ -1465,7 +1473,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C6" s="57"/>
       <c r="D6" s="58"/>
@@ -1473,7 +1481,7 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="95"/>
+      <c r="F6" s="83"/>
       <c r="G6" s="57"/>
       <c r="H6" s="57"/>
       <c r="I6" s="57"/>
@@ -1534,7 +1542,7 @@
         <f t="shared" ref="E7:E21" si="6">D7/C7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F7" s="95"/>
+      <c r="F7" s="83"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -1595,7 +1603,7 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F8" s="95"/>
+      <c r="F8" s="83"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -1656,7 +1664,7 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F9" s="95"/>
+      <c r="F9" s="83"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -1698,8 +1706,8 @@
       <c r="AD9" s="14"/>
       <c r="AE9" s="14"/>
       <c r="AF9" s="14"/>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="93"/>
+      <c r="AG9" s="76"/>
+      <c r="AH9" s="76"/>
       <c r="AI9" s="14"/>
       <c r="AJ9" s="14"/>
       <c r="AK9" s="36"/>
@@ -1717,7 +1725,7 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F10" s="95"/>
+      <c r="F10" s="83"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -1778,7 +1786,7 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F11" s="95"/>
+      <c r="F11" s="83"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -1820,8 +1828,8 @@
       <c r="AD11" s="17"/>
       <c r="AE11" s="17"/>
       <c r="AF11" s="17"/>
-      <c r="AG11" s="89"/>
-      <c r="AH11" s="89"/>
+      <c r="AG11" s="77"/>
+      <c r="AH11" s="77"/>
       <c r="AI11" s="17"/>
       <c r="AJ11" s="17"/>
       <c r="AK11" s="37"/>
@@ -1839,7 +1847,7 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F12" s="95"/>
+      <c r="F12" s="83"/>
       <c r="G12" s="18"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -1881,8 +1889,8 @@
       <c r="AD12" s="17"/>
       <c r="AE12" s="17"/>
       <c r="AF12" s="17"/>
-      <c r="AG12" s="89"/>
-      <c r="AH12" s="89"/>
+      <c r="AG12" s="77"/>
+      <c r="AH12" s="77"/>
       <c r="AI12" s="17"/>
       <c r="AJ12" s="17"/>
       <c r="AK12" s="38"/>
@@ -1900,7 +1908,7 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F13" s="95"/>
+      <c r="F13" s="83"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -1942,8 +1950,8 @@
       <c r="AD13" s="17"/>
       <c r="AE13" s="17"/>
       <c r="AF13" s="17"/>
-      <c r="AG13" s="89"/>
-      <c r="AH13" s="89"/>
+      <c r="AG13" s="77"/>
+      <c r="AH13" s="77"/>
       <c r="AI13" s="17"/>
       <c r="AJ13" s="17"/>
       <c r="AK13" s="38"/>
@@ -1961,7 +1969,7 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F14" s="95"/>
+      <c r="F14" s="83"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
@@ -2003,8 +2011,8 @@
       <c r="AD14" s="20"/>
       <c r="AE14" s="20"/>
       <c r="AF14" s="20"/>
-      <c r="AG14" s="90"/>
-      <c r="AH14" s="91"/>
+      <c r="AG14" s="81"/>
+      <c r="AH14" s="74"/>
       <c r="AI14" s="21"/>
       <c r="AJ14" s="20"/>
       <c r="AK14" s="39"/>
@@ -2022,7 +2030,7 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F15" s="95"/>
+      <c r="F15" s="83"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
@@ -2064,8 +2072,8 @@
       <c r="AD15" s="20"/>
       <c r="AE15" s="20"/>
       <c r="AF15" s="20"/>
-      <c r="AG15" s="91"/>
-      <c r="AH15" s="91"/>
+      <c r="AG15" s="74"/>
+      <c r="AH15" s="74"/>
       <c r="AI15" s="20"/>
       <c r="AJ15" s="20"/>
       <c r="AK15" s="40"/>
@@ -2083,7 +2091,7 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F16" s="95"/>
+      <c r="F16" s="83"/>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
@@ -2144,7 +2152,7 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F17" s="95"/>
+      <c r="F17" s="83"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
@@ -2186,8 +2194,8 @@
       <c r="AD17" s="20"/>
       <c r="AE17" s="20"/>
       <c r="AF17" s="20"/>
-      <c r="AG17" s="91"/>
-      <c r="AH17" s="91"/>
+      <c r="AG17" s="74"/>
+      <c r="AH17" s="74"/>
       <c r="AI17" s="20"/>
       <c r="AJ17" s="20"/>
       <c r="AK17" s="40"/>
@@ -2205,7 +2213,7 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F18" s="95"/>
+      <c r="F18" s="83"/>
       <c r="G18" s="45"/>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
@@ -2266,7 +2274,7 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F19" s="95"/>
+      <c r="F19" s="83"/>
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
@@ -2308,8 +2316,8 @@
       <c r="AD19" s="45"/>
       <c r="AE19" s="45"/>
       <c r="AF19" s="45"/>
-      <c r="AG19" s="86"/>
-      <c r="AH19" s="86"/>
+      <c r="AG19" s="75"/>
+      <c r="AH19" s="75"/>
       <c r="AI19" s="45"/>
       <c r="AJ19" s="45"/>
       <c r="AK19" s="42"/>
@@ -2327,7 +2335,7 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="95"/>
+      <c r="F20" s="83"/>
       <c r="G20" s="45"/>
       <c r="H20" s="45"/>
       <c r="I20" s="45"/>
@@ -2388,7 +2396,7 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="96"/>
+      <c r="F21" s="84"/>
       <c r="G21" s="45"/>
       <c r="H21" s="45"/>
       <c r="I21" s="45"/>
@@ -2430,9 +2438,9 @@
       <c r="AD21" s="45"/>
       <c r="AE21" s="45"/>
       <c r="AF21" s="45"/>
-      <c r="AG21" s="86"/>
-      <c r="AH21" s="86"/>
-      <c r="AI21" s="86"/>
+      <c r="AG21" s="75"/>
+      <c r="AH21" s="75"/>
+      <c r="AI21" s="75"/>
       <c r="AJ21" s="45"/>
       <c r="AK21" s="42"/>
     </row>
@@ -2512,25 +2520,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="F4:F21"/>
-    <mergeCell ref="AG21:AI21"/>
     <mergeCell ref="B1:AI1"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="S2:T2"/>
@@ -2546,6 +2535,25 @@
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="U2:U3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="F4:F21"/>
+    <mergeCell ref="AG21:AI21"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="AJ2:AJ3"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31458333333333299" footer="0.31458333333333299"/>
